--- a/Mandlebrot/Reference.xlsx
+++ b/Mandlebrot/Reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter Shepherd\github\Machine Learning\Mandlebrot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC68DAB7-BDBC-4A69-B654-7B22AEA32D88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB96AF2-B0B1-4AF6-A97B-E4EBC01E986D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3548" windowWidth="13680" windowHeight="9532" xr2:uid="{0C1FBFD3-E8E7-425F-A57A-52D93CE3BA70}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>Trial</t>
+    <t>Trial (accuracy%)</t>
   </si>
 </sst>
 </file>
@@ -73,12 +73,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -89,8 +83,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -113,18 +113,224 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -441,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B641A83-E287-41F1-899F-CC4BFD89F73A}">
-  <dimension ref="C4:G12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -452,15 +658,52 @@
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="D4" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -476,71 +719,144 @@
       <c r="G5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="6"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>95.15</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E6" s="2">
+        <v>95.51</v>
+      </c>
+      <c r="F6" s="2">
+        <v>95.51</v>
+      </c>
+      <c r="G6" s="2">
+        <v>95.78</v>
+      </c>
+      <c r="H6" s="2">
+        <v>95.22</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="6"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>97.31</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E7" s="3">
+        <v>97.34</v>
+      </c>
+      <c r="F7" s="3">
+        <v>97.38</v>
+      </c>
+      <c r="G7" s="4">
+        <v>97.52</v>
+      </c>
+      <c r="H7" s="3">
+        <v>97.4</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="6"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>97.62</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="E8" s="4">
+        <v>94.49</v>
+      </c>
+      <c r="F8" s="4">
+        <v>97.6</v>
+      </c>
+      <c r="G8" s="3">
+        <v>97.38</v>
+      </c>
+      <c r="H8" s="4">
+        <v>97.52</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mandlebrot/Reference.xlsx
+++ b/Mandlebrot/Reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter Shepherd\github\Machine Learning\Mandlebrot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB96AF2-B0B1-4AF6-A97B-E4EBC01E986D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD19FEEE-5CDC-471A-94C1-207E2FA3E311}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3548" windowWidth="13680" windowHeight="9532" xr2:uid="{0C1FBFD3-E8E7-425F-A57A-52D93CE3BA70}"/>
+    <workbookView xWindow="5108" yWindow="2190" windowWidth="13680" windowHeight="9533" xr2:uid="{0C1FBFD3-E8E7-425F-A57A-52D93CE3BA70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Gaussian</t>
   </si>
@@ -311,9 +311,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -323,14 +320,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -647,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B641A83-E287-41F1-899F-CC4BFD89F73A}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -659,51 +659,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="16"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="13"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="15" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="16"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="6"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -722,11 +722,11 @@
       <c r="H5" s="1">
         <v>5</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="6"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -745,11 +745,11 @@
       <c r="H6" s="2">
         <v>95.22</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="6"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,11 +768,11 @@
       <c r="H7" s="3">
         <v>97.4</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="6"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
@@ -791,72 +791,198 @@
       <c r="H8" s="4">
         <v>97.52</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="5"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="5"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="10"/>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="10"/>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>74.11</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="10"/>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>96.72</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="10"/>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>96.55</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="5"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22" s="5"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" s="5"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B24" s="5"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mandlebrot/Reference.xlsx
+++ b/Mandlebrot/Reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter Shepherd\github\Machine Learning\Mandlebrot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD19FEEE-5CDC-471A-94C1-207E2FA3E311}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC515FD-8B96-4CDB-AD70-588BF20A2AC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5108" yWindow="2190" windowWidth="13680" windowHeight="9533" xr2:uid="{0C1FBFD3-E8E7-425F-A57A-52D93CE3BA70}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -905,7 +905,9 @@
       <c r="D18" s="2">
         <v>74.11</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>66.77</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -919,7 +921,9 @@
       <c r="D19" s="4">
         <v>96.72</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="4">
+        <v>96.29</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
@@ -933,7 +937,9 @@
       <c r="D20" s="3">
         <v>96.55</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="3">
+        <v>85.5</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
